--- a/HE-DIEU-HANH/BT Minh họa điều phối.xlsx
+++ b/HE-DIEU-HANH/BT Minh họa điều phối.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\erick-projects\DTTX-HKI-2024\HE-DIEU-HANH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C7694-F366-4603-9BF0-50354298EC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6900B5-4BAE-42F2-9AD8-CEA91FF15996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="5" xr2:uid="{5F242C0A-237D-CC43-B87E-AE25E84E98C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="596" activeTab="6" xr2:uid="{5F242C0A-237D-CC43-B87E-AE25E84E98C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BT03" sheetId="6" r:id="rId4"/>
     <sheet name="BT03 Đề" sheetId="5" r:id="rId5"/>
     <sheet name="SJF độc quyền" sheetId="7" r:id="rId6"/>
+    <sheet name="SJF ko độc quyền practice" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="42">
   <si>
     <t>P1</t>
   </si>
@@ -384,6 +385,9 @@
   </si>
   <si>
     <t>Pi nhỏ hơn được ưu tiên sài CPU trước</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -464,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +496,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,17 +577,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -573,6 +586,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,10 +822,103 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>753846</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F52C7C-5923-488D-B45F-45E0ABCE366C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972674" y="3616975"/>
+          <a:ext cx="6792697" cy="5042276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>191888</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2914DE03-A79B-D762-EAD9-FFE7C9EAAC04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="285750"/>
+          <a:ext cx="9945488" cy="2800741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -835,7 +956,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -941,7 +1062,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1083,7 +1204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1093,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8987C9EC-F5DD-A242-A95D-58ECE937B684}">
   <dimension ref="B1:W15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
@@ -1398,15 +1519,15 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1828,18 +1949,18 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
         <v>10</v>
@@ -2274,13 +2395,13 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="12" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
@@ -2745,13 +2866,13 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="12" t="s">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="L11" s="7" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +3049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484E6711-04C0-4C27-A26C-6BF16647CF57}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
@@ -2939,12 +3060,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="23.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3298,13 +3419,13 @@
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="12" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
       <c r="L14" s="7" t="s">
         <v>5</v>
       </c>
@@ -3401,21 +3522,21 @@
       <c r="R18" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="8"/>
@@ -3424,14 +3545,518 @@
       <c r="I25" s="8"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:J14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C8C512-3BA2-4E68-BA2B-3F3668D89F35}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="31" width="5.375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="23.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="23.25">
+      <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2">
+        <v>16</v>
+      </c>
+      <c r="T4" s="2">
+        <v>17</v>
+      </c>
+      <c r="U4" s="2">
+        <v>18</v>
+      </c>
+      <c r="V4" s="2">
+        <v>19</v>
+      </c>
+      <c r="W4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35</v>
+      </c>
+      <c r="R9" s="2">
+        <v>36</v>
+      </c>
+      <c r="S9" s="2">
+        <v>37</v>
+      </c>
+      <c r="T9" s="2">
+        <v>38</v>
+      </c>
+      <c r="U9" s="2">
+        <v>39</v>
+      </c>
+      <c r="V9" s="2">
+        <v>40</v>
+      </c>
+      <c r="W9" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="L14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="P15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="P16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="P17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="14"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="14"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="I25" s="8"/>
+      <c r="Q25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
